--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Delete_BillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Delete_BillPayment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Delete_BillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Delete_BillPayment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>Case</t>
   </si>
@@ -35,9 +35,6 @@
     <t>success_msg</t>
   </si>
   <si>
-    <t>As a user I want to verify deleting a scheduled payment</t>
-  </si>
-  <si>
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
@@ -50,29 +47,110 @@
     <t xml:space="preserve">SELECT TM.IS_DELETED FROM DC_SCHEDULED_TRAN_MASTER TM INNER JOIN DC_BILL_PAYMENT_BENEFICIARY LM ON TM.BILL_BENEFICIARY_ID = LM.BENEFICIARY_ID where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and LM.CONSUMER_NUMBER =  '{account_number}' </t>
   </si>
   <si>
-    <t>0400000178630</t>
-  </si>
-  <si>
     <t>consumer_no</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>0400000484677</t>
+  </si>
+  <si>
+    <t>65009122100096</t>
+  </si>
+  <si>
+    <t>0004069089</t>
+  </si>
+  <si>
+    <t>1756156</t>
+  </si>
+  <si>
+    <t>0003979428</t>
+  </si>
+  <si>
+    <t>65009121900045</t>
+  </si>
+  <si>
+    <t>0400000064511</t>
+  </si>
+  <si>
+    <t>65009121600066</t>
+  </si>
+  <si>
+    <t>0003950000</t>
+  </si>
+  <si>
+    <t>1756155</t>
+  </si>
+  <si>
+    <t>0318660000</t>
+  </si>
+  <si>
+    <t>65009121500021</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment scheduled Electricity Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment scheduled Water Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment scheduled Gas Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment scheduled Landline Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment scheduled SSGC 5 lac Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment scheduled Water 10 Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment bene scheduled Electricity Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment bene scheduled Water Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment bene scheduled Gas Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment bene scheduled Landline Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment bene scheduled SSGC 5 lac Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a bill payment bene scheduled Water 10 Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a already deleted scheduled Gas Mng_Bill_Delete</t>
+  </si>
+  <si>
+    <t>124823232582</t>
+  </si>
+  <si>
+    <t>As a user I want to verify deleting a inavalid schedule Gas Mng_Bill_Delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,15 +173,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -379,56 +469,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D8:D13">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
